--- a/Code/Results/Cases/Case_2_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_19/res_bus/vm_pu.xlsx
@@ -432,7 +432,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057851</v>
+        <v>0.9571825583057852</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -460,13 +460,13 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769893</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702914</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -474,13 +474,13 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.970642461629057</v>
+        <v>0.9706424616290569</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -502,13 +502,13 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922296</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9660706434537709</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -516,13 +516,13 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9435740419925934</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9576541208834083</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -530,13 +530,13 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9361465105547279</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9517730114689356</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -544,7 +544,7 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.9328454960016259</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -558,13 +558,13 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411972</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9481721277252509</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9483836088965216</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -586,13 +586,13 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194313</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764514</v>
+        <v>0.9490745509764519</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -600,13 +600,13 @@
         <v>13</v>
       </c>
       <c r="E15">
-        <v>0.933278105073729</v>
+        <v>0.9332781050737294</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782936</v>
+        <v>0.9494987508782939</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -614,7 +614,7 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017259</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9543373515865726</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -656,13 +656,13 @@
         <v>17</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9397594814684966</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.9546352493816591</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -670,7 +670,7 @@
         <v>18</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660141</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981065</v>
+        <v>0.9488714019981064</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -698,13 +698,13 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>0.9460223821572514</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -712,13 +712,13 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963313</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285317</v>
+        <v>0.9475391330285313</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442547</v>
+        <v>0.9533716596442546</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -740,13 +740,13 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718015</v>
+        <v>0.9463835801718017</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>0.959875449400583</v>
+        <v>0.9598754494005832</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_19/res_bus/vm_pu.xlsx
@@ -432,7 +432,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057852</v>
+        <v>0.9571825583057851</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -460,13 +460,13 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769893</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>0.9715596031702913</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -474,13 +474,13 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290569</v>
+        <v>0.970642461629057</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -502,13 +502,13 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922296</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537709</v>
+        <v>0.966070643453771</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -516,13 +516,13 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925934</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834083</v>
+        <v>0.9576541208834081</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -530,13 +530,13 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>0.9361465105547282</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>0.9517730114689358</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -544,7 +544,7 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -558,13 +558,13 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411972</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252507</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965214</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -586,13 +586,13 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9490745509764514</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -600,13 +600,13 @@
         <v>13</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737294</v>
+        <v>0.933278105073729</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9494987508782936</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -614,7 +614,7 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
+        <v>0.9543373515865727</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -656,13 +656,13 @@
         <v>17</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684966</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816591</v>
+        <v>0.9546352493816592</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -670,7 +670,7 @@
         <v>18</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9488714019981065</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -698,13 +698,13 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572514</v>
+        <v>0.9460223821572517</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -712,13 +712,13 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>0.9308081199963313</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285313</v>
+        <v>0.9475391330285317</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442546</v>
+        <v>0.9533716596442547</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -740,13 +740,13 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718017</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005832</v>
+        <v>0.959875449400583</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_19/res_bus/vm_pu.xlsx
@@ -417,336 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>1.023281746903598</v>
+      </c>
+      <c r="D2">
+        <v>1.039548342714093</v>
+      </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
+      <c r="F2">
+        <v>1.04089091153649</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.057350088962743</v>
+      </c>
+      <c r="J2">
+        <v>1.044787724537749</v>
+      </c>
+      <c r="K2">
+        <v>1.050482887650168</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
+      <c r="M2">
+        <v>1.051808514678115</v>
+      </c>
+      <c r="N2">
+        <v>1.018522374502435</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.02803304537889</v>
+      </c>
+      <c r="D3">
+        <v>1.043231171694907</v>
+      </c>
       <c r="E3">
-        <v>0.9571825583057852</v>
+        <v>0.9571825583057848</v>
+      </c>
+      <c r="F3">
+        <v>1.04529286976704</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.059113862780318</v>
+      </c>
+      <c r="J3">
+        <v>1.047787616470804</v>
+      </c>
+      <c r="K3">
+        <v>1.053339241646318</v>
+      </c>
       <c r="L3">
-        <v>0.9683942856474069</v>
+        <v>0.9683942856474066</v>
+      </c>
+      <c r="M3">
+        <v>1.055377250871564</v>
+      </c>
+      <c r="N3">
+        <v>1.019534995153756</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.031040070121197</v>
+      </c>
+      <c r="D4">
+        <v>1.045564459763923</v>
+      </c>
       <c r="E4">
-        <v>0.9600238894088614</v>
+        <v>0.9600238894088612</v>
+      </c>
+      <c r="F4">
+        <v>1.048084509486494</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.060219267977647</v>
+      </c>
+      <c r="J4">
+        <v>1.04968176868604</v>
+      </c>
+      <c r="K4">
+        <v>1.055142387594386</v>
+      </c>
       <c r="L4">
-        <v>0.9706300002952758</v>
+        <v>0.9706300002952756</v>
+      </c>
+      <c r="M4">
+        <v>1.057635269699313</v>
+      </c>
+      <c r="N4">
+        <v>1.020174221449539</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.032288682712444</v>
+      </c>
+      <c r="D5">
+        <v>1.046533862988766</v>
+      </c>
       <c r="E5">
-        <v>0.9612062874769893</v>
+        <v>0.9612062874769891</v>
+      </c>
+      <c r="F5">
+        <v>1.049245019195251</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1.060675622274407</v>
+      </c>
+      <c r="J5">
+        <v>1.050467184080445</v>
+      </c>
+      <c r="K5">
+        <v>1.05588996901291</v>
+      </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>0.9715596031702912</v>
+      </c>
+      <c r="M5">
+        <v>1.058572692779555</v>
+      </c>
+      <c r="N5">
+        <v>1.020439238599397</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.03249743555014</v>
+      </c>
+      <c r="D6">
+        <v>1.046695966252962</v>
+      </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
+      <c r="F6">
+        <v>1.049439119546044</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.060751762515911</v>
+      </c>
+      <c r="J6">
+        <v>1.050598430536648</v>
+      </c>
+      <c r="K6">
+        <v>1.05601488725368</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
+      </c>
+      <c r="M6">
+        <v>1.058729406916656</v>
+      </c>
+      <c r="N6">
+        <v>1.020483521707205</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.031056814448017</v>
+      </c>
+      <c r="D7">
+        <v>1.045577457694425</v>
+      </c>
       <c r="E7">
-        <v>0.9600397355691358</v>
+        <v>0.9600397355691357</v>
+      </c>
+      <c r="F7">
+        <v>1.04810006710833</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.060225398351076</v>
+      </c>
+      <c r="J7">
+        <v>1.049692305756455</v>
+      </c>
+      <c r="K7">
+        <v>1.055152417484881</v>
+      </c>
       <c r="L7">
-        <v>0.9706424616290569</v>
+        <v>0.9706424616290568</v>
+      </c>
+      <c r="M7">
+        <v>1.057647841622645</v>
+      </c>
+      <c r="N7">
+        <v>1.020177777061021</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>1.024901788669727</v>
+      </c>
+      <c r="D8">
+        <v>1.04080351959722</v>
+      </c>
       <c r="E8">
-        <v>0.9542328392922296</v>
+        <v>0.9542328392922297</v>
+      </c>
+      <c r="F8">
+        <v>1.042390617802808</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1.057953735331921</v>
+      </c>
+      <c r="J8">
+        <v>1.045811502545162</v>
+      </c>
+      <c r="K8">
+        <v>1.051457754265053</v>
+      </c>
       <c r="L8">
-        <v>0.9660706434537709</v>
+        <v>0.966070643453771</v>
+      </c>
+      <c r="M8">
+        <v>1.053025437683758</v>
+      </c>
+      <c r="N8">
+        <v>1.018867982148533</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>1.01351150867362</v>
+      </c>
+      <c r="D9">
+        <v>1.03199118548981</v>
+      </c>
       <c r="E9">
-        <v>0.9435740419925934</v>
+        <v>0.9435740419925933</v>
+      </c>
+      <c r="F9">
+        <v>1.031872344247162</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.053664999362545</v>
+      </c>
+      <c r="J9">
+        <v>1.038595999741883</v>
+      </c>
+      <c r="K9">
+        <v>1.044585707484345</v>
+      </c>
       <c r="L9">
-        <v>0.9576541208834083</v>
+        <v>0.9576541208834081</v>
+      </c>
+      <c r="M9">
+        <v>1.044468645477366</v>
+      </c>
+      <c r="N9">
+        <v>1.016431695639759</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>1.005509659830631</v>
+      </c>
+      <c r="D10">
+        <v>1.025818890425247</v>
+      </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>0.9361465105547283</v>
+      </c>
+      <c r="F10">
+        <v>1.024518090326924</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.050597191974383</v>
+      </c>
+      <c r="J10">
+        <v>1.033506371602763</v>
+      </c>
+      <c r="K10">
+        <v>1.039737116262943</v>
+      </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>0.9517730114689358</v>
+      </c>
+      <c r="M10">
+        <v>1.038458337826337</v>
+      </c>
+      <c r="N10">
+        <v>1.014712784941127</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>1.001937568112165</v>
+      </c>
+      <c r="D11">
+        <v>1.02306875141324</v>
+      </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>0.9328454960016257</v>
+      </c>
+      <c r="F11">
+        <v>1.021244084417933</v>
       </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.049215274864419</v>
+      </c>
+      <c r="J11">
+        <v>1.031229963542288</v>
+      </c>
+      <c r="K11">
+        <v>1.037568354378578</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
+      </c>
+      <c r="M11">
+        <v>1.035776188860037</v>
+      </c>
+      <c r="N11">
+        <v>1.013943939448918</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>1.00059366206103</v>
+      </c>
+      <c r="D12">
+        <v>1.02203494383539</v>
+      </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
+      </c>
+      <c r="F12">
+        <v>1.020013739640623</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.048693552039773</v>
+      </c>
+      <c r="J12">
+        <v>1.030372918276206</v>
+      </c>
+      <c r="K12">
+        <v>1.036751824322537</v>
+      </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252507</v>
+      </c>
+      <c r="M12">
+        <v>1.034767296700965</v>
+      </c>
+      <c r="N12">
+        <v>1.013654476177518</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>1.000882723267957</v>
+      </c>
+      <c r="D13">
+        <v>1.022257265740723</v>
+      </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
+      <c r="F13">
+        <v>1.020278309971428</v>
+      </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.048805850575597</v>
+      </c>
+      <c r="J13">
+        <v>1.030557287022155</v>
+      </c>
+      <c r="K13">
+        <v>1.036927477753041</v>
+      </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965215</v>
+      </c>
+      <c r="M13">
+        <v>1.034984289782052</v>
+      </c>
+      <c r="N13">
+        <v>1.013716745847437</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>1.001826834504601</v>
+      </c>
+      <c r="D14">
+        <v>1.022983551010784</v>
+      </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194318</v>
+      </c>
+      <c r="F14">
+        <v>1.021142678786852</v>
       </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.049172323066546</v>
+      </c>
+      <c r="J14">
+        <v>1.031159357756399</v>
+      </c>
+      <c r="K14">
+        <v>1.037501086533982</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
+      </c>
+      <c r="M14">
+        <v>1.035693054989026</v>
+      </c>
+      <c r="N14">
+        <v>1.013920092634354</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>1.002406240376539</v>
+      </c>
+      <c r="D15">
+        <v>1.023429391677709</v>
+      </c>
       <c r="E15">
-        <v>0.9332781050737294</v>
+        <v>0.9332781050737295</v>
+      </c>
+      <c r="F15">
+        <v>1.021673334679791</v>
       </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.049396991823208</v>
+      </c>
+      <c r="J15">
+        <v>1.031528773192907</v>
+      </c>
+      <c r="K15">
+        <v>1.037853037140663</v>
       </c>
       <c r="L15">
         <v>0.9494987508782939</v>
+      </c>
+      <c r="M15">
+        <v>1.036128055529866</v>
+      </c>
+      <c r="N15">
+        <v>1.01404486119409</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>1.005744388067061</v>
+      </c>
+      <c r="D16">
+        <v>1.025999721749792</v>
+      </c>
       <c r="E16">
         <v>0.9363637346017259</v>
       </c>
+      <c r="F16">
+        <v>1.024733423259228</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>1.050687746024394</v>
+      </c>
+      <c r="J16">
+        <v>1.033655871603324</v>
+      </c>
+      <c r="K16">
+        <v>1.039879544369539</v>
+      </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.9519451749175716</v>
+      </c>
+      <c r="M16">
+        <v>1.038634610226102</v>
+      </c>
+      <c r="N16">
+        <v>1.014763277464591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>1.007808953726838</v>
+      </c>
+      <c r="D17">
+        <v>1.027590836701334</v>
+      </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.938276015685567</v>
+      </c>
+      <c r="F17">
+        <v>1.026628426082586</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1.051482813512428</v>
+      </c>
+      <c r="J17">
+        <v>1.034970317889327</v>
+      </c>
+      <c r="K17">
+        <v>1.041131795642029</v>
+      </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.9534603602068051</v>
+      </c>
+      <c r="M17">
+        <v>1.040185133821664</v>
+      </c>
+      <c r="N17">
+        <v>1.015207218280575</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>1.009002901691365</v>
+      </c>
+      <c r="D18">
+        <v>1.028511475760617</v>
+      </c>
       <c r="E18">
-        <v>0.9393832867215683</v>
+        <v>0.9393832867215687</v>
+      </c>
+      <c r="F18">
+        <v>1.027725162852611</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.051941424173492</v>
+      </c>
+      <c r="J18">
+        <v>1.035730052353913</v>
+      </c>
+      <c r="K18">
+        <v>1.041855566092222</v>
+      </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.954337351586573</v>
+      </c>
+      <c r="M18">
+        <v>1.041081890187069</v>
+      </c>
+      <c r="N18">
+        <v>1.015463806854305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>1.009408291703039</v>
+      </c>
+      <c r="D19">
+        <v>1.028824148089345</v>
+      </c>
       <c r="E19">
-        <v>0.9397594814684966</v>
+        <v>0.9397594814684969</v>
+      </c>
+      <c r="F19">
+        <v>1.02809768802125</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.052096937837362</v>
+      </c>
+      <c r="J19">
+        <v>1.035987938681791</v>
+      </c>
+      <c r="K19">
+        <v>1.042101241640917</v>
+      </c>
       <c r="L19">
-        <v>0.9546352493816591</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.9546352493816594</v>
+      </c>
+      <c r="M19">
+        <v>1.041386384574363</v>
+      </c>
+      <c r="N19">
+        <v>1.015550903145218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>1.007588515206909</v>
+      </c>
+      <c r="D20">
+        <v>1.02742089826718</v>
+      </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.938071692466014</v>
+      </c>
+      <c r="F20">
+        <v>1.026426003768513</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1.051398044434432</v>
+      </c>
+      <c r="J20">
+        <v>1.034830014207906</v>
+      </c>
+      <c r="K20">
+        <v>1.040998132224266</v>
+      </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.9532985019057443</v>
+      </c>
+      <c r="M20">
+        <v>1.040019571918761</v>
+      </c>
+      <c r="N20">
+        <v>1.015159832521148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>1.00154929664216</v>
+      </c>
+      <c r="D21">
+        <v>1.02277002257283</v>
+      </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
+      <c r="F21">
+        <v>1.020888543153712</v>
+      </c>
       <c r="G21">
         <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.049064641557352</v>
+      </c>
+      <c r="J21">
+        <v>1.030982384912209</v>
+      </c>
+      <c r="K21">
+        <v>1.037332480052443</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>1.035484695269502</v>
+      </c>
+      <c r="N21">
+        <v>1.013860320792306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9976528945528005</v>
+      </c>
+      <c r="D22">
+        <v>1.019774410786038</v>
+      </c>
       <c r="E22">
         <v>0.928897295365116</v>
       </c>
+      <c r="F22">
+        <v>1.017324144639528</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.047548632275168</v>
+      </c>
+      <c r="J22">
+        <v>1.028496451113195</v>
+      </c>
+      <c r="K22">
+        <v>1.034964054003473</v>
+      </c>
       <c r="L22">
-        <v>0.9460223821572514</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.9460223821572515</v>
+      </c>
+      <c r="M22">
+        <v>1.032560045638382</v>
+      </c>
+      <c r="N22">
+        <v>1.013020712664104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9997282047643354</v>
+      </c>
+      <c r="D23">
+        <v>1.021369437963098</v>
+      </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>0.9308081199963315</v>
+      </c>
+      <c r="F23">
+        <v>1.019221821040201</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.04835706571959</v>
+      </c>
+      <c r="J23">
+        <v>1.029820828105638</v>
+      </c>
+      <c r="K23">
+        <v>1.036225831163369</v>
+      </c>
       <c r="L23">
-        <v>0.9475391330285313</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.9475391330285319</v>
+      </c>
+      <c r="M23">
+        <v>1.034117646990364</v>
+      </c>
+      <c r="N23">
+        <v>1.013468010679399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>1.007688153577822</v>
+      </c>
+      <c r="D24">
+        <v>1.0274977090491</v>
+      </c>
       <c r="E24">
-        <v>0.9381640424011831</v>
+        <v>0.9381640424011829</v>
+      </c>
+      <c r="F24">
+        <v>1.026517496176668</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.051436363784741</v>
+      </c>
+      <c r="J24">
+        <v>1.034893432867395</v>
+      </c>
+      <c r="K24">
+        <v>1.041058549469139</v>
+      </c>
       <c r="L24">
-        <v>0.9533716596442546</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.9533716596442545</v>
+      </c>
+      <c r="M24">
+        <v>1.040094405771296</v>
+      </c>
+      <c r="N24">
+        <v>1.015181251368483</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>1.016524852308852</v>
+      </c>
+      <c r="D25">
+        <v>1.034319601263847</v>
+      </c>
       <c r="E25">
-        <v>0.9463835801718017</v>
+        <v>0.9463835801718012</v>
+      </c>
+      <c r="F25">
+        <v>1.03464919082712</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.054809235042303</v>
+      </c>
+      <c r="J25">
+        <v>1.040508606012922</v>
+      </c>
+      <c r="K25">
+        <v>1.046407525957118</v>
+      </c>
       <c r="L25">
-        <v>0.9598754494005832</v>
+        <v>0.9598754494005829</v>
+      </c>
+      <c r="M25">
+        <v>1.046732421671367</v>
+      </c>
+      <c r="N25">
+        <v>1.017077570772866</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_19/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.023281746903598</v>
+        <v>1.044578486661111</v>
       </c>
       <c r="D2">
-        <v>1.039548342714093</v>
+        <v>1.050286781194331</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.04089091153649</v>
+        <v>1.05803654146201</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057350088962743</v>
+        <v>1.04515051847246</v>
       </c>
       <c r="J2">
-        <v>1.044787724537749</v>
+        <v>1.049642820311586</v>
       </c>
       <c r="K2">
-        <v>1.050482887650168</v>
+        <v>1.053041479020159</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.051808514678115</v>
+        <v>1.060769873490923</v>
       </c>
       <c r="N2">
-        <v>1.018522374502435</v>
+        <v>1.02040366397046</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.02803304537889</v>
+        <v>1.045554242169184</v>
       </c>
       <c r="D3">
-        <v>1.043231171694907</v>
+        <v>1.051061122918184</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.04529286976704</v>
+        <v>1.058996407795321</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059113862780318</v>
+        <v>1.045441573898956</v>
       </c>
       <c r="J3">
-        <v>1.047787616470804</v>
+        <v>1.050265758189885</v>
       </c>
       <c r="K3">
-        <v>1.053339241646318</v>
+        <v>1.05362833502183</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.055377250871564</v>
+        <v>1.06154332365306</v>
       </c>
       <c r="N3">
-        <v>1.019534995153756</v>
+        <v>1.02061253897232</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.031040070121197</v>
+        <v>1.04618565559105</v>
       </c>
       <c r="D4">
-        <v>1.045564459763923</v>
+        <v>1.051562195828748</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.048084509486494</v>
+        <v>1.059617964197831</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060219267977647</v>
+        <v>1.045628581835255</v>
       </c>
       <c r="J4">
-        <v>1.04968176868604</v>
+        <v>1.050668256196563</v>
       </c>
       <c r="K4">
-        <v>1.055142387594386</v>
+        <v>1.054007432060348</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.057635269699313</v>
+        <v>1.062043633019576</v>
       </c>
       <c r="N4">
-        <v>1.020174221449539</v>
+        <v>1.020747442295809</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.032288682712444</v>
+        <v>1.046451109547178</v>
       </c>
       <c r="D5">
-        <v>1.046533862988766</v>
+        <v>1.051772851209962</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.049245019195251</v>
+        <v>1.059879375418846</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060675622274407</v>
+        <v>1.045706882512996</v>
       </c>
       <c r="J5">
-        <v>1.050467184080445</v>
+        <v>1.050837325841185</v>
       </c>
       <c r="K5">
-        <v>1.05588996901291</v>
+        <v>1.054166651052202</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.058572692779555</v>
+        <v>1.062253922896135</v>
       </c>
       <c r="N5">
-        <v>1.020439238599397</v>
+        <v>1.020804094888315</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.03249743555014</v>
+        <v>1.046495680875457</v>
       </c>
       <c r="D6">
-        <v>1.046695966252962</v>
+        <v>1.05180822140176</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.049439119546044</v>
+        <v>1.059923273873336</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060751762515911</v>
+        <v>1.04572001091385</v>
       </c>
       <c r="J6">
-        <v>1.050598430536648</v>
+        <v>1.050865705121084</v>
       </c>
       <c r="K6">
-        <v>1.05601488725368</v>
+        <v>1.054193375606826</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.058729406916656</v>
+        <v>1.062289229112998</v>
       </c>
       <c r="N6">
-        <v>1.020483521707205</v>
+        <v>1.020813603537309</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.031056814448017</v>
+        <v>1.046189202569921</v>
       </c>
       <c r="D7">
-        <v>1.045577457694425</v>
+        <v>1.051565010600437</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.04810006710833</v>
+        <v>1.059621456760553</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060225398351076</v>
+        <v>1.045629629340635</v>
       </c>
       <c r="J7">
-        <v>1.049692305756455</v>
+        <v>1.050670515866315</v>
       </c>
       <c r="K7">
-        <v>1.055152417484881</v>
+        <v>1.054009560155902</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.057647841622645</v>
+        <v>1.062046443082052</v>
       </c>
       <c r="N7">
-        <v>1.020177777061021</v>
+        <v>1.020748199529601</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.024901788669727</v>
+        <v>1.04490824040447</v>
       </c>
       <c r="D8">
-        <v>1.04080351959722</v>
+        <v>1.050548468474558</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.042390617802808</v>
+        <v>1.05836083726304</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057953735331921</v>
+        <v>1.045249156000512</v>
       </c>
       <c r="J8">
-        <v>1.045811502545162</v>
+        <v>1.049853465740451</v>
       </c>
       <c r="K8">
-        <v>1.051457754265053</v>
+        <v>1.053239941469285</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.053025437683758</v>
+        <v>1.061031298212719</v>
       </c>
       <c r="N8">
-        <v>1.018867982148533</v>
+        <v>1.020474306442118</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.01351150867362</v>
+        <v>1.042651305091643</v>
       </c>
       <c r="D9">
-        <v>1.03199118548981</v>
+        <v>1.0487574016253</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.031872344247162</v>
+        <v>1.056143017386474</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053664999362545</v>
+        <v>1.044568587552496</v>
       </c>
       <c r="J9">
-        <v>1.038595999741883</v>
+        <v>1.048409268920933</v>
       </c>
       <c r="K9">
-        <v>1.044585707484345</v>
+        <v>1.051878917124295</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.044468645477366</v>
+        <v>1.059241256443535</v>
       </c>
       <c r="N9">
-        <v>1.016431695639759</v>
+        <v>1.019989746912642</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.005509659830631</v>
+        <v>1.041146897546715</v>
       </c>
       <c r="D10">
-        <v>1.025818890425247</v>
+        <v>1.047563552870543</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.024518090326924</v>
+        <v>1.054666911092268</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050597191974383</v>
+        <v>1.044108089731261</v>
       </c>
       <c r="J10">
-        <v>1.033506371602763</v>
+        <v>1.047443512716643</v>
       </c>
       <c r="K10">
-        <v>1.039737116262943</v>
+        <v>1.050968338687629</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.038458337826337</v>
+        <v>1.058047114465041</v>
       </c>
       <c r="N10">
-        <v>1.014712784941127</v>
+        <v>1.019665427359175</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.001937568112165</v>
+        <v>1.040495528244239</v>
       </c>
       <c r="D11">
-        <v>1.02306875141324</v>
+        <v>1.047046660628641</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.021244084417933</v>
+        <v>1.0540283298747</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049215274864419</v>
+        <v>1.043907084068438</v>
       </c>
       <c r="J11">
-        <v>1.031229963542288</v>
+        <v>1.047024634537296</v>
       </c>
       <c r="K11">
-        <v>1.037568354378578</v>
+        <v>1.050573289727384</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.035776188860037</v>
+        <v>1.057529861358864</v>
       </c>
       <c r="N11">
-        <v>1.013943939448918</v>
+        <v>1.019524692705537</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.00059366206103</v>
+        <v>1.040253588327366</v>
       </c>
       <c r="D12">
-        <v>1.02203494383539</v>
+        <v>1.046854672499619</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.020013739640623</v>
+        <v>1.053791220661578</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048693552039773</v>
+        <v>1.043832180472088</v>
       </c>
       <c r="J12">
-        <v>1.030372918276206</v>
+        <v>1.046868939921693</v>
       </c>
       <c r="K12">
-        <v>1.036751824322537</v>
+        <v>1.050426436931948</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.034767296700965</v>
+        <v>1.057337703856139</v>
       </c>
       <c r="N12">
-        <v>1.013654476177518</v>
+        <v>1.019472372402872</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.000882723267957</v>
+        <v>1.040305484910565</v>
       </c>
       <c r="D13">
-        <v>1.022257265740723</v>
+        <v>1.046895854199638</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.020278309971428</v>
+        <v>1.053842077385408</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048805850575597</v>
+        <v>1.043848258455189</v>
       </c>
       <c r="J13">
-        <v>1.030557287022155</v>
+        <v>1.046902341671611</v>
       </c>
       <c r="K13">
-        <v>1.036927477753041</v>
+        <v>1.050457942506255</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.034984289782052</v>
+        <v>1.05737892348934</v>
       </c>
       <c r="N13">
-        <v>1.013716745847437</v>
+        <v>1.019483597326827</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.001826834504601</v>
+        <v>1.040475529257733</v>
       </c>
       <c r="D14">
-        <v>1.022983551010784</v>
+        <v>1.047030790648466</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.021142678786852</v>
+        <v>1.054008728547803</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049172323066546</v>
+        <v>1.04390089743131</v>
       </c>
       <c r="J14">
-        <v>1.031159357756399</v>
+        <v>1.047011766903119</v>
       </c>
       <c r="K14">
-        <v>1.037501086533982</v>
+        <v>1.050561153152435</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.035693054989026</v>
+        <v>1.057513978100087</v>
       </c>
       <c r="N14">
-        <v>1.013920092634354</v>
+        <v>1.019520368813577</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.002406240376539</v>
+        <v>1.040580300213218</v>
       </c>
       <c r="D15">
-        <v>1.023429391677709</v>
+        <v>1.04711393062094</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.021673334679791</v>
+        <v>1.054111419550419</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049396991823208</v>
+        <v>1.043933298096964</v>
       </c>
       <c r="J15">
-        <v>1.031528773192907</v>
+        <v>1.047079173551858</v>
       </c>
       <c r="K15">
-        <v>1.037853037140663</v>
+        <v>1.050624729544846</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.036128055529866</v>
+        <v>1.057597186188376</v>
       </c>
       <c r="N15">
-        <v>1.01404486119409</v>
+        <v>1.019543018958801</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.005744388067061</v>
+        <v>1.041190127839293</v>
       </c>
       <c r="D16">
-        <v>1.025999721749792</v>
+        <v>1.047597858475843</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.024733423259228</v>
+        <v>1.054709303963292</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050687746024394</v>
+        <v>1.044121395981656</v>
       </c>
       <c r="J16">
-        <v>1.033655871603324</v>
+        <v>1.04747129758648</v>
       </c>
       <c r="K16">
-        <v>1.039879544369539</v>
+        <v>1.050994540766828</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.038634610226102</v>
+        <v>1.058081439075328</v>
       </c>
       <c r="N16">
-        <v>1.014763277464591</v>
+        <v>1.019674761106515</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.007808953726838</v>
+        <v>1.041572669930288</v>
       </c>
       <c r="D17">
-        <v>1.027590836701334</v>
+        <v>1.047901428181728</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.026628426082586</v>
+        <v>1.055084497562981</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051482813512428</v>
+        <v>1.044238954769465</v>
       </c>
       <c r="J17">
-        <v>1.034970317889327</v>
+        <v>1.047717079719538</v>
       </c>
       <c r="K17">
-        <v>1.041131795642029</v>
+        <v>1.051226309812978</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.040185133821664</v>
+        <v>1.058385149908238</v>
       </c>
       <c r="N17">
-        <v>1.015207218280575</v>
+        <v>1.01975731872888</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.009002901691365</v>
+        <v>1.041795804978437</v>
       </c>
       <c r="D18">
-        <v>1.028511475760617</v>
+        <v>1.048078500231104</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.027725162852611</v>
+        <v>1.055303397798316</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051941424173492</v>
+        <v>1.044307369742579</v>
       </c>
       <c r="J18">
-        <v>1.035730052353913</v>
+        <v>1.047860372769355</v>
       </c>
       <c r="K18">
-        <v>1.041855566092222</v>
+        <v>1.051361423171599</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.041081890187069</v>
+        <v>1.058562281719813</v>
       </c>
       <c r="N18">
-        <v>1.015463806854305</v>
+        <v>1.019805444026523</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.009408291703039</v>
+        <v>1.041871889055725</v>
       </c>
       <c r="D19">
-        <v>1.028824148089345</v>
+        <v>1.048138878042713</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.02809768802125</v>
+        <v>1.055378046623564</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052096937837362</v>
+        <v>1.044330671167214</v>
       </c>
       <c r="J19">
-        <v>1.035987938681791</v>
+        <v>1.047909220531338</v>
       </c>
       <c r="K19">
-        <v>1.042101241640917</v>
+        <v>1.051407480834366</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.041386384574363</v>
+        <v>1.058622676088977</v>
       </c>
       <c r="N19">
-        <v>1.015550903145218</v>
+        <v>1.019821848555834</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.007588515206909</v>
+        <v>1.041531626294168</v>
       </c>
       <c r="D20">
-        <v>1.02742089826718</v>
+        <v>1.047868857504507</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.026426003768513</v>
+        <v>1.055044237026433</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051398044434432</v>
+        <v>1.044226357862428</v>
       </c>
       <c r="J20">
-        <v>1.034830014207906</v>
+        <v>1.047690716602199</v>
       </c>
       <c r="K20">
-        <v>1.040998132224266</v>
+        <v>1.051201450797147</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.040019571918761</v>
+        <v>1.058352566423755</v>
       </c>
       <c r="N20">
-        <v>1.015159832521148</v>
+        <v>1.019748464092647</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.00154929664216</v>
+        <v>1.040425455222547</v>
       </c>
       <c r="D21">
-        <v>1.02277002257283</v>
+        <v>1.046991054981659</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.020888543153712</v>
+        <v>1.053959651490959</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049064641557352</v>
+        <v>1.043885403219156</v>
       </c>
       <c r="J21">
-        <v>1.030982384912209</v>
+        <v>1.0469795467838</v>
       </c>
       <c r="K21">
-        <v>1.037332480052443</v>
+        <v>1.05053076333288</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.035484695269502</v>
+        <v>1.057474208614431</v>
       </c>
       <c r="N21">
-        <v>1.013860320792306</v>
+        <v>1.019509541772922</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9976528945528005</v>
+        <v>1.039730005928187</v>
       </c>
       <c r="D22">
-        <v>1.019774410786038</v>
+        <v>1.046439196233755</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.017324144639528</v>
+        <v>1.053278240678506</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047548632275168</v>
+        <v>1.043669636470489</v>
       </c>
       <c r="J22">
-        <v>1.028496451113195</v>
+        <v>1.046531801085277</v>
       </c>
       <c r="K22">
-        <v>1.034964054003473</v>
+        <v>1.050108416071908</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.032560045638382</v>
+        <v>1.056921796218055</v>
       </c>
       <c r="N22">
-        <v>1.013020712664104</v>
+        <v>1.019359060497784</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9997282047643354</v>
+        <v>1.040098672462166</v>
       </c>
       <c r="D23">
-        <v>1.021369437963098</v>
+        <v>1.046731741930552</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.019221821040201</v>
+        <v>1.053639420736252</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04835706571959</v>
+        <v>1.043784150638811</v>
       </c>
       <c r="J23">
-        <v>1.029820828105638</v>
+        <v>1.046769216744758</v>
       </c>
       <c r="K23">
-        <v>1.036225831163369</v>
+        <v>1.0503323726747</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.034117646990364</v>
+        <v>1.05721465486412</v>
       </c>
       <c r="N23">
-        <v>1.013468010679399</v>
+        <v>1.019438858170575</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.007688153577822</v>
+        <v>1.041550172131968</v>
       </c>
       <c r="D24">
-        <v>1.0274977090491</v>
+        <v>1.047883574776216</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.026517496176668</v>
+        <v>1.055062428856402</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051436363784741</v>
+        <v>1.044232050341644</v>
       </c>
       <c r="J24">
-        <v>1.034893432867395</v>
+        <v>1.047702629168714</v>
       </c>
       <c r="K24">
-        <v>1.041058549469139</v>
+        <v>1.05121268374378</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.040094405771296</v>
+        <v>1.058367289552169</v>
       </c>
       <c r="N24">
-        <v>1.015181251368483</v>
+        <v>1.01975246521174</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.016524852308852</v>
+        <v>1.043234740751122</v>
       </c>
       <c r="D25">
-        <v>1.034319601263847</v>
+        <v>1.049220404801717</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.03464919082712</v>
+        <v>1.056715950643663</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054809235042303</v>
+        <v>1.044745728452847</v>
       </c>
       <c r="J25">
-        <v>1.040508606012922</v>
+        <v>1.048783152303912</v>
       </c>
       <c r="K25">
-        <v>1.046407525957118</v>
+        <v>1.052231346378805</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.046732421671367</v>
+        <v>1.059704165989711</v>
       </c>
       <c r="N25">
-        <v>1.017077570772866</v>
+        <v>1.020115243799425</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_19/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.044578486661111</v>
+        <v>1.023281746903598</v>
       </c>
       <c r="D2">
-        <v>1.050286781194331</v>
+        <v>1.039548342714093</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.05803654146201</v>
+        <v>1.040890911536489</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04515051847246</v>
+        <v>1.057350088962742</v>
       </c>
       <c r="J2">
-        <v>1.049642820311586</v>
+        <v>1.044787724537748</v>
       </c>
       <c r="K2">
-        <v>1.053041479020159</v>
+        <v>1.050482887650167</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.060769873490923</v>
+        <v>1.051808514678114</v>
       </c>
       <c r="N2">
-        <v>1.02040366397046</v>
+        <v>1.018522374502435</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.045554242169184</v>
+        <v>1.02803304537889</v>
       </c>
       <c r="D3">
-        <v>1.051061122918184</v>
+        <v>1.043231171694907</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.058996407795321</v>
+        <v>1.045292869767041</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045441573898956</v>
+        <v>1.059113862780318</v>
       </c>
       <c r="J3">
-        <v>1.050265758189885</v>
+        <v>1.047787616470804</v>
       </c>
       <c r="K3">
-        <v>1.05362833502183</v>
+        <v>1.053339241646319</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.06154332365306</v>
+        <v>1.055377250871565</v>
       </c>
       <c r="N3">
-        <v>1.02061253897232</v>
+        <v>1.019534995153756</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.04618565559105</v>
+        <v>1.031040070121197</v>
       </c>
       <c r="D4">
-        <v>1.051562195828748</v>
+        <v>1.045564459763922</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.059617964197831</v>
+        <v>1.048084509486493</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045628581835255</v>
+        <v>1.060219267977647</v>
       </c>
       <c r="J4">
-        <v>1.050668256196563</v>
+        <v>1.049681768686039</v>
       </c>
       <c r="K4">
-        <v>1.054007432060348</v>
+        <v>1.055142387594386</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.062043633019576</v>
+        <v>1.057635269699312</v>
       </c>
       <c r="N4">
-        <v>1.020747442295809</v>
+        <v>1.020174221449539</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046451109547178</v>
+        <v>1.032288682712444</v>
       </c>
       <c r="D5">
-        <v>1.051772851209962</v>
+        <v>1.046533862988766</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.059879375418846</v>
+        <v>1.04924501919525</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045706882512996</v>
+        <v>1.060675622274406</v>
       </c>
       <c r="J5">
-        <v>1.050837325841185</v>
+        <v>1.050467184080445</v>
       </c>
       <c r="K5">
-        <v>1.054166651052202</v>
+        <v>1.05588996901291</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.062253922896135</v>
+        <v>1.058572692779554</v>
       </c>
       <c r="N5">
-        <v>1.020804094888315</v>
+        <v>1.020439238599397</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.046495680875457</v>
+        <v>1.032497435550139</v>
       </c>
       <c r="D6">
-        <v>1.05180822140176</v>
+        <v>1.046695966252961</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.059923273873336</v>
+        <v>1.049439119546044</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04572001091385</v>
+        <v>1.060751762515911</v>
       </c>
       <c r="J6">
-        <v>1.050865705121084</v>
+        <v>1.050598430536648</v>
       </c>
       <c r="K6">
-        <v>1.054193375606826</v>
+        <v>1.05601488725368</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.062289229112998</v>
+        <v>1.058729406916656</v>
       </c>
       <c r="N6">
-        <v>1.020813603537309</v>
+        <v>1.020483521707205</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.046189202569921</v>
+        <v>1.031056814448017</v>
       </c>
       <c r="D7">
-        <v>1.051565010600437</v>
+        <v>1.045577457694425</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.059621456760553</v>
+        <v>1.048100067108329</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045629629340635</v>
+        <v>1.060225398351076</v>
       </c>
       <c r="J7">
-        <v>1.050670515866315</v>
+        <v>1.049692305756455</v>
       </c>
       <c r="K7">
-        <v>1.054009560155902</v>
+        <v>1.055152417484881</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.062046443082052</v>
+        <v>1.057647841622645</v>
       </c>
       <c r="N7">
-        <v>1.020748199529601</v>
+        <v>1.020177777061022</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.04490824040447</v>
+        <v>1.024901788669727</v>
       </c>
       <c r="D8">
-        <v>1.050548468474558</v>
+        <v>1.040803519597221</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.05836083726304</v>
+        <v>1.042390617802808</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045249156000512</v>
+        <v>1.057953735331922</v>
       </c>
       <c r="J8">
-        <v>1.049853465740451</v>
+        <v>1.045811502545162</v>
       </c>
       <c r="K8">
-        <v>1.053239941469285</v>
+        <v>1.051457754265054</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.061031298212719</v>
+        <v>1.053025437683759</v>
       </c>
       <c r="N8">
-        <v>1.020474306442118</v>
+        <v>1.018867982148533</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.042651305091643</v>
+        <v>1.013511508673619</v>
       </c>
       <c r="D9">
-        <v>1.0487574016253</v>
+        <v>1.031991185489808</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.056143017386474</v>
+        <v>1.031872344247161</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044568587552496</v>
+        <v>1.053664999362544</v>
       </c>
       <c r="J9">
-        <v>1.048409268920933</v>
+        <v>1.038595999741882</v>
       </c>
       <c r="K9">
-        <v>1.051878917124295</v>
+        <v>1.044585707484344</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.059241256443535</v>
+        <v>1.044468645477364</v>
       </c>
       <c r="N9">
-        <v>1.019989746912642</v>
+        <v>1.016431695639759</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.041146897546715</v>
+        <v>1.00550965983063</v>
       </c>
       <c r="D10">
-        <v>1.047563552870543</v>
+        <v>1.025818890425247</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.054666911092268</v>
+        <v>1.024518090326924</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044108089731261</v>
+        <v>1.050597191974383</v>
       </c>
       <c r="J10">
-        <v>1.047443512716643</v>
+        <v>1.033506371602762</v>
       </c>
       <c r="K10">
-        <v>1.050968338687629</v>
+        <v>1.039737116262942</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.058047114465041</v>
+        <v>1.038458337826337</v>
       </c>
       <c r="N10">
-        <v>1.019665427359175</v>
+        <v>1.014712784941127</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.040495528244239</v>
+        <v>1.001937568112164</v>
       </c>
       <c r="D11">
-        <v>1.047046660628641</v>
+        <v>1.023068751413239</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.0540283298747</v>
+        <v>1.021244084417932</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043907084068438</v>
+        <v>1.049215274864419</v>
       </c>
       <c r="J11">
-        <v>1.047024634537296</v>
+        <v>1.031229963542288</v>
       </c>
       <c r="K11">
-        <v>1.050573289727384</v>
+        <v>1.037568354378578</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.057529861358864</v>
+        <v>1.035776188860036</v>
       </c>
       <c r="N11">
-        <v>1.019524692705537</v>
+        <v>1.013943939448918</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.040253588327366</v>
+        <v>1.000593662061031</v>
       </c>
       <c r="D12">
-        <v>1.046854672499619</v>
+        <v>1.022034943835391</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.053791220661578</v>
+        <v>1.020013739640625</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043832180472088</v>
+        <v>1.048693552039774</v>
       </c>
       <c r="J12">
-        <v>1.046868939921693</v>
+        <v>1.030372918276207</v>
       </c>
       <c r="K12">
-        <v>1.050426436931948</v>
+        <v>1.036751824322539</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.057337703856139</v>
+        <v>1.034767296700967</v>
       </c>
       <c r="N12">
-        <v>1.019472372402872</v>
+        <v>1.013654476177519</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.040305484910565</v>
+        <v>1.000882723267958</v>
       </c>
       <c r="D13">
-        <v>1.046895854199638</v>
+        <v>1.022257265740723</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.053842077385408</v>
+        <v>1.020278309971428</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043848258455189</v>
+        <v>1.048805850575597</v>
       </c>
       <c r="J13">
-        <v>1.046902341671611</v>
+        <v>1.030557287022156</v>
       </c>
       <c r="K13">
-        <v>1.050457942506255</v>
+        <v>1.036927477753042</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.05737892348934</v>
+        <v>1.034984289782052</v>
       </c>
       <c r="N13">
-        <v>1.019483597326827</v>
+        <v>1.013716745847437</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.040475529257733</v>
+        <v>1.001826834504601</v>
       </c>
       <c r="D14">
-        <v>1.047030790648466</v>
+        <v>1.022983551010784</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.054008728547803</v>
+        <v>1.021142678786851</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04390089743131</v>
+        <v>1.049172323066545</v>
       </c>
       <c r="J14">
-        <v>1.047011766903119</v>
+        <v>1.031159357756399</v>
       </c>
       <c r="K14">
-        <v>1.050561153152435</v>
+        <v>1.037501086533982</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.057513978100087</v>
+        <v>1.035693054989026</v>
       </c>
       <c r="N14">
-        <v>1.019520368813577</v>
+        <v>1.013920092634354</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.040580300213218</v>
+        <v>1.00240624037654</v>
       </c>
       <c r="D15">
-        <v>1.04711393062094</v>
+        <v>1.02342939167771</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.054111419550419</v>
+        <v>1.021673334679791</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043933298096964</v>
+        <v>1.049396991823208</v>
       </c>
       <c r="J15">
-        <v>1.047079173551858</v>
+        <v>1.031528773192907</v>
       </c>
       <c r="K15">
-        <v>1.050624729544846</v>
+        <v>1.037853037140664</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.057597186188376</v>
+        <v>1.036128055529867</v>
       </c>
       <c r="N15">
-        <v>1.019543018958801</v>
+        <v>1.01404486119409</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.041190127839293</v>
+        <v>1.005744388067062</v>
       </c>
       <c r="D16">
-        <v>1.047597858475843</v>
+        <v>1.025999721749794</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.054709303963292</v>
+        <v>1.024733423259229</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044121395981656</v>
+        <v>1.050687746024395</v>
       </c>
       <c r="J16">
-        <v>1.04747129758648</v>
+        <v>1.033655871603326</v>
       </c>
       <c r="K16">
-        <v>1.050994540766828</v>
+        <v>1.03987954436954</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.058081439075328</v>
+        <v>1.038634610226103</v>
       </c>
       <c r="N16">
-        <v>1.019674761106515</v>
+        <v>1.014763277464591</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.041572669930288</v>
+        <v>1.007808953726837</v>
       </c>
       <c r="D17">
-        <v>1.047901428181728</v>
+        <v>1.027590836701333</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.055084497562981</v>
+        <v>1.026628426082585</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044238954769465</v>
+        <v>1.051482813512427</v>
       </c>
       <c r="J17">
-        <v>1.047717079719538</v>
+        <v>1.034970317889326</v>
       </c>
       <c r="K17">
-        <v>1.051226309812978</v>
+        <v>1.041131795642028</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.058385149908238</v>
+        <v>1.040185133821663</v>
       </c>
       <c r="N17">
-        <v>1.01975731872888</v>
+        <v>1.015207218280575</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.041795804978437</v>
+        <v>1.009002901691367</v>
       </c>
       <c r="D18">
-        <v>1.048078500231104</v>
+        <v>1.02851147576062</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.055303397798316</v>
+        <v>1.027725162852614</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044307369742579</v>
+        <v>1.051941424173493</v>
       </c>
       <c r="J18">
-        <v>1.047860372769355</v>
+        <v>1.035730052353916</v>
       </c>
       <c r="K18">
-        <v>1.051361423171599</v>
+        <v>1.041855566092225</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.058562281719813</v>
+        <v>1.041081890187071</v>
       </c>
       <c r="N18">
-        <v>1.019805444026523</v>
+        <v>1.015463806854306</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.041871889055725</v>
+        <v>1.009408291703038</v>
       </c>
       <c r="D19">
-        <v>1.048138878042713</v>
+        <v>1.028824148089344</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.055378046623564</v>
+        <v>1.028097688021249</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044330671167214</v>
+        <v>1.052096937837361</v>
       </c>
       <c r="J19">
-        <v>1.047909220531338</v>
+        <v>1.03598793868179</v>
       </c>
       <c r="K19">
-        <v>1.051407480834366</v>
+        <v>1.042101241640916</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.058622676088977</v>
+        <v>1.041386384574361</v>
       </c>
       <c r="N19">
-        <v>1.019821848555834</v>
+        <v>1.015550903145218</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.041531626294168</v>
+        <v>1.007588515206907</v>
       </c>
       <c r="D20">
-        <v>1.047868857504507</v>
+        <v>1.027420898267178</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.055044237026433</v>
+        <v>1.026426003768511</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044226357862428</v>
+        <v>1.051398044434431</v>
       </c>
       <c r="J20">
-        <v>1.047690716602199</v>
+        <v>1.034830014207904</v>
       </c>
       <c r="K20">
-        <v>1.051201450797147</v>
+        <v>1.040998132224264</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.058352566423755</v>
+        <v>1.040019571918759</v>
       </c>
       <c r="N20">
-        <v>1.019748464092647</v>
+        <v>1.015159832521147</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.040425455222547</v>
+        <v>1.00154929664216</v>
       </c>
       <c r="D21">
-        <v>1.046991054981659</v>
+        <v>1.022770022572831</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.053959651490959</v>
+        <v>1.020888543153713</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043885403219156</v>
+        <v>1.049064641557352</v>
       </c>
       <c r="J21">
-        <v>1.0469795467838</v>
+        <v>1.030982384912209</v>
       </c>
       <c r="K21">
-        <v>1.05053076333288</v>
+        <v>1.037332480052445</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.057474208614431</v>
+        <v>1.035484695269502</v>
       </c>
       <c r="N21">
-        <v>1.019509541772922</v>
+        <v>1.013860320792306</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.039730005928187</v>
+        <v>0.9976528945528018</v>
       </c>
       <c r="D22">
-        <v>1.046439196233755</v>
+        <v>1.019774410786039</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.053278240678506</v>
+        <v>1.017324144639529</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043669636470489</v>
+        <v>1.047548632275169</v>
       </c>
       <c r="J22">
-        <v>1.046531801085277</v>
+        <v>1.028496451113196</v>
       </c>
       <c r="K22">
-        <v>1.050108416071908</v>
+        <v>1.034964054003475</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.056921796218055</v>
+        <v>1.032560045638383</v>
       </c>
       <c r="N22">
-        <v>1.019359060497784</v>
+        <v>1.013020712664104</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.040098672462166</v>
+        <v>0.9997282047643354</v>
       </c>
       <c r="D23">
-        <v>1.046731741930552</v>
+        <v>1.021369437963098</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.053639420736252</v>
+        <v>1.019221821040201</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043784150638811</v>
+        <v>1.04835706571959</v>
       </c>
       <c r="J23">
-        <v>1.046769216744758</v>
+        <v>1.029820828105639</v>
       </c>
       <c r="K23">
-        <v>1.0503323726747</v>
+        <v>1.036225831163369</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.05721465486412</v>
+        <v>1.034117646990365</v>
       </c>
       <c r="N23">
-        <v>1.019438858170575</v>
+        <v>1.013468010679399</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.041550172131968</v>
+        <v>1.007688153577821</v>
       </c>
       <c r="D24">
-        <v>1.047883574776216</v>
+        <v>1.027497709049099</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.055062428856402</v>
+        <v>1.026517496176668</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044232050341644</v>
+        <v>1.051436363784741</v>
       </c>
       <c r="J24">
-        <v>1.047702629168714</v>
+        <v>1.034893432867394</v>
       </c>
       <c r="K24">
-        <v>1.05121268374378</v>
+        <v>1.041058549469138</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.058367289552169</v>
+        <v>1.040094405771295</v>
       </c>
       <c r="N24">
-        <v>1.01975246521174</v>
+        <v>1.015181251368483</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.043234740751122</v>
+        <v>1.016524852308852</v>
       </c>
       <c r="D25">
-        <v>1.049220404801717</v>
+        <v>1.034319601263847</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.056715950643663</v>
+        <v>1.03464919082712</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044745728452847</v>
+        <v>1.054809235042302</v>
       </c>
       <c r="J25">
-        <v>1.048783152303912</v>
+        <v>1.040508606012921</v>
       </c>
       <c r="K25">
-        <v>1.052231346378805</v>
+        <v>1.046407525957118</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.059704165989711</v>
+        <v>1.046732421671367</v>
       </c>
       <c r="N25">
-        <v>1.020115243799425</v>
+        <v>1.017077570772866</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_19/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.023281746903598</v>
+        <v>0.9956710641531625</v>
       </c>
       <c r="D2">
-        <v>1.039548342714093</v>
+        <v>1.017656681836417</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680758</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.040890911536489</v>
+        <v>1.014746963166982</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057350088962742</v>
+        <v>1.045477070838867</v>
       </c>
       <c r="J2">
-        <v>1.044787724537748</v>
+        <v>1.017982028401688</v>
       </c>
       <c r="K2">
-        <v>1.050482887650167</v>
+        <v>1.028875391725316</v>
       </c>
       <c r="L2">
-        <v>0.964870170840339</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.051808514678114</v>
+        <v>1.026004602398086</v>
       </c>
       <c r="N2">
-        <v>1.018522374502435</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.009744005827286</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.029153198003837</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.031487559344863</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02803304537889</v>
+        <v>1.000364804790116</v>
       </c>
       <c r="D3">
-        <v>1.043231171694907</v>
+        <v>1.020779114330671</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057846</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.045292869767041</v>
+        <v>1.018188039681189</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059113862780318</v>
+        <v>1.046565273101788</v>
       </c>
       <c r="J3">
-        <v>1.047787616470804</v>
+        <v>1.020845529796986</v>
       </c>
       <c r="K3">
-        <v>1.053339241646319</v>
+        <v>1.031152850541812</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474063</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.055377250871565</v>
+        <v>1.02859337234561</v>
       </c>
       <c r="N3">
-        <v>1.019534995153756</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.010723100013503</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.031202065749588</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.033095264632148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031040070121197</v>
+        <v>1.003330424643408</v>
       </c>
       <c r="D4">
-        <v>1.045564459763922</v>
+        <v>1.02275294296871</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088611</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.048084509486493</v>
+        <v>1.020373467077325</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060219267977647</v>
+        <v>1.047236977261843</v>
       </c>
       <c r="J4">
-        <v>1.049681768686039</v>
+        <v>1.022649319793633</v>
       </c>
       <c r="K4">
-        <v>1.055142387594386</v>
+        <v>1.032584301783295</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952755</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.057635269699312</v>
+        <v>1.030232066739752</v>
       </c>
       <c r="N4">
-        <v>1.020174221449539</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.01133993875917</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.03249899830342</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.03410834616644</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032288682712444</v>
+        <v>1.004565124898317</v>
       </c>
       <c r="D5">
-        <v>1.046533862988766</v>
+        <v>1.023576831684132</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.04924501919525</v>
+        <v>1.021284631787426</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060675622274406</v>
+        <v>1.047514248737361</v>
       </c>
       <c r="J5">
-        <v>1.050467184080445</v>
+        <v>1.023400596744575</v>
       </c>
       <c r="K5">
-        <v>1.05588996901291</v>
+        <v>1.033181113105214</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.058572692779554</v>
+        <v>1.030914446551604</v>
       </c>
       <c r="N5">
-        <v>1.020439238599397</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.011598052978135</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.033039062047386</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.034537573315055</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032497435550139</v>
+        <v>1.004776907282268</v>
       </c>
       <c r="D6">
-        <v>1.046695966252961</v>
+        <v>1.023720506540966</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017083</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.049439119546044</v>
+        <v>1.021439414178128</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060751762515911</v>
+        <v>1.047563396440037</v>
       </c>
       <c r="J6">
-        <v>1.050598430536648</v>
+        <v>1.023531371371321</v>
       </c>
       <c r="K6">
-        <v>1.05601488725368</v>
+        <v>1.03328665164828</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965043</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.058729406916656</v>
+        <v>1.031030850909194</v>
       </c>
       <c r="N6">
-        <v>1.020483521707205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.011644421763026</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.033131189252403</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.03462100758757</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031056814448017</v>
+        <v>1.003361564093671</v>
       </c>
       <c r="D7">
-        <v>1.045577457694425</v>
+        <v>1.022779982135755</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.048100067108329</v>
+        <v>1.020391980022665</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060225398351076</v>
+        <v>1.047248841877432</v>
       </c>
       <c r="J7">
-        <v>1.049692305756455</v>
+        <v>1.022673610492636</v>
       </c>
       <c r="K7">
-        <v>1.055152417484881</v>
+        <v>1.032608120439655</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.057647841622645</v>
+        <v>1.030247446145035</v>
       </c>
       <c r="N7">
-        <v>1.020177777061022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.011352211612394</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.032511170208542</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.034145453394953</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.024901788669727</v>
+        <v>0.9972907150498951</v>
       </c>
       <c r="D8">
-        <v>1.040803519597221</v>
+        <v>1.018741502570491</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922295</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.042390617802808</v>
+        <v>1.015926501260562</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057953735331922</v>
+        <v>1.045861661438353</v>
       </c>
       <c r="J8">
-        <v>1.045811502545162</v>
+        <v>1.018977800870733</v>
       </c>
       <c r="K8">
-        <v>1.051457754265054</v>
+        <v>1.029673454242853</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537708</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.053025437683759</v>
+        <v>1.026894974435331</v>
       </c>
       <c r="N8">
-        <v>1.018867982148533</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.010089660685376</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.029857878741457</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.032074983657656</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.013511508673619</v>
+        <v>0.9859919843578653</v>
       </c>
       <c r="D9">
-        <v>1.031991185489808</v>
+        <v>1.011226851459574</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925935</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.031872344247161</v>
+        <v>1.007715940896029</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053664999362544</v>
+        <v>1.043148524016591</v>
       </c>
       <c r="J9">
-        <v>1.038595999741882</v>
+        <v>1.01204928746809</v>
       </c>
       <c r="K9">
-        <v>1.044585707484344</v>
+        <v>1.024140369529822</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834084</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.044468645477364</v>
+        <v>1.020685060584247</v>
       </c>
       <c r="N9">
-        <v>1.016431695639759</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.007716729609955</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.024943056766599</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.028159425972335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.00550965983063</v>
+        <v>0.9782109470956628</v>
       </c>
       <c r="D10">
-        <v>1.025818890425247</v>
+        <v>1.006073331030389</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547281</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.024518090326924</v>
+        <v>1.002359299786884</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050597191974383</v>
+        <v>1.041222810580809</v>
       </c>
       <c r="J10">
-        <v>1.033506371602762</v>
+        <v>1.007316546516838</v>
       </c>
       <c r="K10">
-        <v>1.039737116262942</v>
+        <v>1.020333788649118</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.038458337826337</v>
+        <v>1.016686086607253</v>
       </c>
       <c r="N10">
-        <v>1.014712784941127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.006117311548317</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.021830558214197</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.025484883656586</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.001937568112164</v>
+        <v>0.9761701714517856</v>
       </c>
       <c r="D11">
-        <v>1.023068751413239</v>
+        <v>1.004788379499056</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016256</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.021244084417932</v>
+        <v>1.002823481915312</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049215274864419</v>
+        <v>1.040856949085178</v>
       </c>
       <c r="J11">
-        <v>1.031229963542288</v>
+        <v>1.006569035914898</v>
       </c>
       <c r="K11">
-        <v>1.037568354378578</v>
+        <v>1.019620555452833</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416571</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.035776188860036</v>
+        <v>1.017692347214798</v>
       </c>
       <c r="N11">
-        <v>1.013943939448918</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.006027194128879</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.023071022573444</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.025013872975716</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.000593662061031</v>
+        <v>0.975863392329128</v>
       </c>
       <c r="D12">
-        <v>1.022034943835391</v>
+        <v>1.004624910017998</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.020013739640625</v>
+        <v>1.00393187414658</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048693552039774</v>
+        <v>1.04087789594941</v>
       </c>
       <c r="J12">
-        <v>1.030372918276207</v>
+        <v>1.006725587306597</v>
       </c>
       <c r="K12">
-        <v>1.036751824322539</v>
+        <v>1.019664037226367</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252506</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.034767296700967</v>
+        <v>1.018984131356816</v>
       </c>
       <c r="N12">
-        <v>1.013654476177519</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.006194561347461</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.024424133927538</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.025044616776368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000882723267958</v>
+        <v>0.9768852097741916</v>
       </c>
       <c r="D13">
-        <v>1.022257265740723</v>
+        <v>1.005329928630299</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368229</v>
+        <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.020278309971428</v>
+        <v>1.005636789907109</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048805850575597</v>
+        <v>1.041212011259785</v>
       </c>
       <c r="J13">
-        <v>1.030557287022156</v>
+        <v>1.007604767378203</v>
       </c>
       <c r="K13">
-        <v>1.036927477753042</v>
+        <v>1.020312029754622</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.034984289782052</v>
+        <v>1.020613114994713</v>
       </c>
       <c r="N13">
-        <v>1.013716745847437</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.006582430981002</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.025992247892395</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.025500254860408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.001826834504601</v>
+        <v>0.9781800190611223</v>
       </c>
       <c r="D14">
-        <v>1.022983551010784</v>
+        <v>1.00620258077438</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.021142678786851</v>
+        <v>1.007067369594723</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049172323066545</v>
+        <v>1.041580261491699</v>
       </c>
       <c r="J14">
-        <v>1.031159357756399</v>
+        <v>1.008526573508485</v>
       </c>
       <c r="K14">
-        <v>1.037501086533982</v>
+        <v>1.021025282529228</v>
       </c>
       <c r="L14">
-        <v>0.949074550976452</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.035693054989026</v>
+        <v>1.021874020825668</v>
       </c>
       <c r="N14">
-        <v>1.013920092634354</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.006945242093265</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.027164036622133</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.02600600320367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.00240624037654</v>
+        <v>0.9788073950061326</v>
       </c>
       <c r="D15">
-        <v>1.02342939167771</v>
+        <v>1.006622133404722</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>1.021673334679791</v>
+        <v>1.007599848323321</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049396991823208</v>
+        <v>1.04174727064629</v>
       </c>
       <c r="J15">
-        <v>1.031528773192907</v>
+        <v>1.008932575348158</v>
       </c>
       <c r="K15">
-        <v>1.037853037140664</v>
+        <v>1.021348997560451</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782941</v>
+        <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.036128055529867</v>
+        <v>1.02230871256459</v>
       </c>
       <c r="N15">
-        <v>1.01404486119409</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.007092718200129</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.027545482473632</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.026240829548851</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.005744388067062</v>
+        <v>0.9818880608604698</v>
       </c>
       <c r="D16">
-        <v>1.025999721749794</v>
+        <v>1.008658099090582</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017261</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.024733423259229</v>
+        <v>1.009573313164011</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050687746024395</v>
+        <v>1.042510974561179</v>
       </c>
       <c r="J16">
-        <v>1.033655871603326</v>
+        <v>1.010760022991775</v>
       </c>
       <c r="K16">
-        <v>1.03987954436954</v>
+        <v>1.022836545147895</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175717</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.038634610226103</v>
+        <v>1.023735666887218</v>
       </c>
       <c r="N16">
-        <v>1.014763277464591</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.007692880524973</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.028634273300222</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.027295802472091</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.007808953726837</v>
+        <v>0.9835873900920935</v>
       </c>
       <c r="D17">
-        <v>1.027590836701333</v>
+        <v>1.009773583240731</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.026628426082585</v>
+        <v>1.010346830162898</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051482813512427</v>
+        <v>1.042905458575069</v>
       </c>
       <c r="J17">
-        <v>1.034970317889326</v>
+        <v>1.011691226405442</v>
       </c>
       <c r="K17">
-        <v>1.041131795642028</v>
+        <v>1.023612389121314</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068056</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.040185133821663</v>
+        <v>1.024175841941912</v>
       </c>
       <c r="N17">
-        <v>1.015207218280575</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.00796865247576</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.028851945793478</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.027846979505896</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.009002901691367</v>
+        <v>0.9841816240815654</v>
       </c>
       <c r="D18">
-        <v>1.02851147576062</v>
+        <v>1.010142428392018</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.027725162852614</v>
+        <v>1.009973961724254</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051941424173493</v>
+        <v>1.04299190130885</v>
       </c>
       <c r="J18">
-        <v>1.035730052353916</v>
+        <v>1.01185584429272</v>
       </c>
       <c r="K18">
-        <v>1.041855566092225</v>
+        <v>1.023788357137017</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.041081890187071</v>
+        <v>1.023622724216622</v>
       </c>
       <c r="N18">
-        <v>1.015463806854306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.007952246458636</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.028174371000103</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.02795962881245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.009408291703038</v>
+        <v>0.9837178435655488</v>
       </c>
       <c r="D19">
-        <v>1.028824148089344</v>
+        <v>1.009802382966716</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.028097688021249</v>
+        <v>1.008441457973636</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052096937837361</v>
+        <v>1.042785425932015</v>
       </c>
       <c r="J19">
-        <v>1.03598793868179</v>
+        <v>1.011272086661926</v>
       </c>
       <c r="K19">
-        <v>1.042101241640916</v>
+        <v>1.023390385226031</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.041386384574361</v>
+        <v>1.022052284069874</v>
       </c>
       <c r="N19">
-        <v>1.015550903145218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.007653551083717</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.02660267493464</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.027684713592719</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.007588515206907</v>
+        <v>0.980278395298209</v>
       </c>
       <c r="D20">
-        <v>1.027420898267178</v>
+        <v>1.007456421314963</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.026426003768511</v>
+        <v>1.003778947481236</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051398044434431</v>
+        <v>1.041751457705659</v>
       </c>
       <c r="J20">
-        <v>1.034830014207904</v>
+        <v>1.008591305963749</v>
       </c>
       <c r="K20">
-        <v>1.040998132224264</v>
+        <v>1.021369413545436</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.040019571918759</v>
+        <v>1.017755672531754</v>
       </c>
       <c r="N20">
-        <v>1.015159832521147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.006560881710243</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.022666275697013</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.026259759846266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.00154929664216</v>
+        <v>0.9741103962439626</v>
       </c>
       <c r="D21">
-        <v>1.022770022572831</v>
+        <v>1.003361970098059</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148896</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.020888543153713</v>
+        <v>0.9991923685598266</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049064641557352</v>
+        <v>1.040166239074124</v>
       </c>
       <c r="J21">
-        <v>1.030982384912209</v>
+        <v>1.004731898490548</v>
       </c>
       <c r="K21">
-        <v>1.037332480052445</v>
+        <v>1.018279927635212</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.035484695269502</v>
+        <v>1.014189057937847</v>
       </c>
       <c r="N21">
-        <v>1.013860320792306</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.005224323077845</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.019801772486626</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.02407861159662</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9976528945528018</v>
+        <v>0.9701996354630928</v>
       </c>
       <c r="D22">
-        <v>1.019774410786039</v>
+        <v>1.000768340511448</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.017324144639529</v>
+        <v>0.996420718750984</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047548632275169</v>
+        <v>1.039151005840097</v>
       </c>
       <c r="J22">
-        <v>1.028496451113196</v>
+        <v>1.00230589932811</v>
       </c>
       <c r="K22">
-        <v>1.034964054003475</v>
+        <v>1.016324591777345</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.032560045638383</v>
+        <v>1.012063416941516</v>
       </c>
       <c r="N22">
-        <v>1.013020712664104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.004388584164185</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.018119417839973</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.02268236755073</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9997282047643354</v>
+        <v>0.9722696519118127</v>
       </c>
       <c r="D23">
-        <v>1.021369437963098</v>
+        <v>1.002135604730103</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.019221821040201</v>
+        <v>0.9978899762058723</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04835706571959</v>
+        <v>1.039686158237456</v>
       </c>
       <c r="J23">
-        <v>1.029820828105639</v>
+        <v>1.00358585568691</v>
       </c>
       <c r="K23">
-        <v>1.036225831163369</v>
+        <v>1.017353039643163</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285314</v>
+        <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.034117646990365</v>
+        <v>1.013189565610875</v>
       </c>
       <c r="N23">
-        <v>1.013468010679399</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.004824990032888</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.019010717253011</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.023399761252055</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.007688153577821</v>
+        <v>0.9802165494040909</v>
       </c>
       <c r="D24">
-        <v>1.027497709049099</v>
+        <v>1.00740145021681</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.026517496176668</v>
+        <v>1.003557181628475</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051436363784741</v>
+        <v>1.04171534506667</v>
       </c>
       <c r="J24">
-        <v>1.034893432867394</v>
+        <v>1.00849800600267</v>
       </c>
       <c r="K24">
-        <v>1.041058549469138</v>
+        <v>1.021299822971785</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.040094405771295</v>
+        <v>1.017522115821183</v>
       </c>
       <c r="N24">
-        <v>1.015181251368483</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.00650742455302</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.022439737839038</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.026182791622878</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.016524852308852</v>
+        <v>0.989009055105265</v>
       </c>
       <c r="D25">
-        <v>1.034319601263847</v>
+        <v>1.013240964920771</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718014</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.03464919082712</v>
+        <v>1.009890349400701</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054809235042302</v>
+        <v>1.043893939965424</v>
       </c>
       <c r="J25">
-        <v>1.040508606012921</v>
+        <v>1.013912055592808</v>
       </c>
       <c r="K25">
-        <v>1.046407525957118</v>
+        <v>1.025637151359716</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.046732421671367</v>
+        <v>1.022337046337736</v>
       </c>
       <c r="N25">
-        <v>1.017077570772866</v>
+        <v>1.008361619111174</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.026250520513666</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.029246674758761</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_19/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9956710641531625</v>
+        <v>0.9963900314365142</v>
       </c>
       <c r="D2">
-        <v>1.017656681836417</v>
+        <v>1.017992570729008</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9527101846680759</v>
       </c>
       <c r="F2">
-        <v>1.014746963166982</v>
+        <v>1.015058422499213</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045477070838867</v>
+        <v>1.045647564202222</v>
       </c>
       <c r="J2">
-        <v>1.017982028401688</v>
+        <v>1.018679254781147</v>
       </c>
       <c r="K2">
-        <v>1.028875391725316</v>
+        <v>1.029206804724257</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.026004602398086</v>
+        <v>1.02631188129041</v>
       </c>
       <c r="N2">
-        <v>1.009744005827286</v>
+        <v>1.012059375542552</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.029153198003837</v>
+        <v>1.029396392510875</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.031487559344863</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.031730757012434</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019899474001873</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000364804790116</v>
+        <v>1.000757497146521</v>
       </c>
       <c r="D3">
-        <v>1.020779114330671</v>
+        <v>1.020779077959354</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9571825583057851</v>
       </c>
       <c r="F3">
-        <v>1.018188039681189</v>
+        <v>1.018357926292374</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.046565273101788</v>
+        <v>1.046565254620208</v>
       </c>
       <c r="J3">
-        <v>1.020845529796986</v>
+        <v>1.021227533305014</v>
       </c>
       <c r="K3">
-        <v>1.031152850541812</v>
+        <v>1.03115281461262</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9683942856474069</v>
       </c>
       <c r="M3">
-        <v>1.02859337234561</v>
+        <v>1.028761181177345</v>
       </c>
       <c r="N3">
-        <v>1.010723100013503</v>
+        <v>1.012747655268171</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.031202065749588</v>
+        <v>1.031334876918648</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.033095264632148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.033103811132489</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020313982108376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003330424643408</v>
+        <v>1.003520155394163</v>
       </c>
       <c r="D4">
-        <v>1.02275294296871</v>
+        <v>1.022542775893421</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9600238894088614</v>
       </c>
       <c r="F4">
-        <v>1.020373467077325</v>
+        <v>1.020455477726637</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.047236977261843</v>
+        <v>1.04713010831344</v>
       </c>
       <c r="J4">
-        <v>1.022649319793633</v>
+        <v>1.022834241865947</v>
       </c>
       <c r="K4">
-        <v>1.032584301783295</v>
+        <v>1.032376534456368</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9706300002952759</v>
       </c>
       <c r="M4">
-        <v>1.030232066739752</v>
+        <v>1.030313135900781</v>
       </c>
       <c r="N4">
-        <v>1.01133993875917</v>
+        <v>1.013181826108306</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.03249899830342</v>
+        <v>1.032563159828625</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.03410834616644</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.033970083709787</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020571857475425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004565124898317</v>
+        <v>1.004670873716559</v>
       </c>
       <c r="D5">
-        <v>1.023576831684132</v>
+        <v>1.02327959807558</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.021284631787426</v>
+        <v>1.02133032502198</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.047514248737361</v>
+        <v>1.047363061630239</v>
       </c>
       <c r="J5">
-        <v>1.023400596744575</v>
+        <v>1.023503746837361</v>
       </c>
       <c r="K5">
-        <v>1.033181113105214</v>
+        <v>1.03288718251007</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
-        <v>1.030914446551604</v>
+        <v>1.030959629420861</v>
       </c>
       <c r="N5">
-        <v>1.011598052978135</v>
+        <v>1.013363573023015</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.033039062047386</v>
+        <v>1.033074821633305</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.034537573315055</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.034339093693138</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020679364375106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004776907282268</v>
+        <v>1.004868049511116</v>
       </c>
       <c r="D6">
-        <v>1.023720506540966</v>
+        <v>1.023408287198655</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017088</v>
       </c>
       <c r="F6">
-        <v>1.021439414178128</v>
+        <v>1.021478793648131</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.047563396440037</v>
+        <v>1.047404578850875</v>
       </c>
       <c r="J6">
-        <v>1.023531371371321</v>
+        <v>1.02362028554717</v>
       </c>
       <c r="K6">
-        <v>1.03328665164828</v>
+        <v>1.032977885851551</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>1.031030850909194</v>
+        <v>1.031069792580496</v>
       </c>
       <c r="N6">
-        <v>1.011644421763026</v>
+        <v>1.013396161266735</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.033131189252403</v>
+        <v>1.033162009292956</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.03462100758757</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.034412905804147</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02069911868774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003361564093671</v>
+        <v>1.003561244230217</v>
       </c>
       <c r="D7">
-        <v>1.022779982135755</v>
+        <v>1.022576174561932</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9600397355691359</v>
       </c>
       <c r="F7">
-        <v>1.020391980022665</v>
+        <v>1.020478290847515</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047248841877432</v>
+        <v>1.047145206233392</v>
       </c>
       <c r="J7">
-        <v>1.022673610492636</v>
+        <v>1.022868232129161</v>
       </c>
       <c r="K7">
-        <v>1.032608120439655</v>
+        <v>1.032406639052474</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
-        <v>1.030247446145035</v>
+        <v>1.030332766496029</v>
       </c>
       <c r="N7">
-        <v>1.011352211612394</v>
+        <v>1.013220632415534</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.032511170208542</v>
+        <v>1.032578696301979</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.034145453394953</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.034013631888054</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020581046167895</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9972907150498951</v>
+        <v>0.9979349710319222</v>
       </c>
       <c r="D8">
-        <v>1.018741502570491</v>
+        <v>1.018987999673565</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>1.015926501260562</v>
+        <v>1.016205467626179</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.045861661438353</v>
+        <v>1.045986826063257</v>
       </c>
       <c r="J8">
-        <v>1.018977800870733</v>
+        <v>1.019603245441611</v>
       </c>
       <c r="K8">
-        <v>1.029673454242853</v>
+        <v>1.029916765342784</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9660706434537711</v>
       </c>
       <c r="M8">
-        <v>1.026894974435331</v>
+        <v>1.027170310214281</v>
       </c>
       <c r="N8">
-        <v>1.010089660685376</v>
+        <v>1.01239466424496</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.029857878741457</v>
+        <v>1.030075791796333</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.032074983657656</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.032258141980284</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020056566346976</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9859919843578653</v>
+        <v>0.9874496823491244</v>
       </c>
       <c r="D9">
-        <v>1.011226851459574</v>
+        <v>1.012300307735977</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9435740419925932</v>
       </c>
       <c r="F9">
-        <v>1.007715940896029</v>
+        <v>1.008349137887917</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.043148524016591</v>
+        <v>1.043692261519092</v>
       </c>
       <c r="J9">
-        <v>1.01204928746809</v>
+        <v>1.013453543991772</v>
       </c>
       <c r="K9">
-        <v>1.024140369529822</v>
+        <v>1.025196924200244</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.957654120883408</v>
       </c>
       <c r="M9">
-        <v>1.020685060584247</v>
+        <v>1.02130819309527</v>
       </c>
       <c r="N9">
-        <v>1.007716729609955</v>
+        <v>1.010742396275271</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.024943056766599</v>
+        <v>1.025436235144369</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.028159425972335</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.028917362654756</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019033861276532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9782109470956628</v>
+        <v>0.9803004208303084</v>
       </c>
       <c r="D10">
-        <v>1.006073331030389</v>
+        <v>1.007763958162404</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.002359299786884</v>
+        <v>1.003267938736528</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.041222810580809</v>
+        <v>1.042077797881567</v>
       </c>
       <c r="J10">
-        <v>1.007316546516838</v>
+        <v>1.009318033941137</v>
       </c>
       <c r="K10">
-        <v>1.020333788649118</v>
+        <v>1.02199443275807</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.016686086607253</v>
+        <v>1.017578439161145</v>
       </c>
       <c r="N10">
-        <v>1.006117311548317</v>
+        <v>1.00976200285336</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.021830558214197</v>
+        <v>1.02253676817243</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.025484883656586</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.026671649575859</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018338674707519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9761701714517856</v>
+        <v>0.9784574776103211</v>
       </c>
       <c r="D11">
-        <v>1.004788379499056</v>
+        <v>1.006656763235575</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>1.002823481915312</v>
+        <v>1.003810479959854</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.040856949085178</v>
+        <v>1.041801226630935</v>
       </c>
       <c r="J11">
-        <v>1.006569035914898</v>
+        <v>1.008754747498335</v>
       </c>
       <c r="K11">
-        <v>1.019620555452833</v>
+        <v>1.021454225218626</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.017692347214798</v>
+        <v>1.018660892209592</v>
       </c>
       <c r="N11">
-        <v>1.006027194128879</v>
+        <v>1.009948135035835</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.023071022573444</v>
+        <v>1.023837130954047</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.025013872975716</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.026326166931996</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018286196950527</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.975863392329128</v>
+        <v>0.9781778295747425</v>
       </c>
       <c r="D12">
-        <v>1.004624910017998</v>
+        <v>1.00651393745026</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9316058186411972</v>
       </c>
       <c r="F12">
-        <v>1.00393187414658</v>
+        <v>1.004924908205506</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.04087789594941</v>
+        <v>1.041832394609553</v>
       </c>
       <c r="J12">
-        <v>1.006725587306597</v>
+        <v>1.008935342999981</v>
       </c>
       <c r="K12">
-        <v>1.019664037226367</v>
+        <v>1.021517395781907</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.018984131356816</v>
+        <v>1.019958359099601</v>
       </c>
       <c r="N12">
-        <v>1.006194561347461</v>
+        <v>1.010168716281458</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.024424133927538</v>
+        <v>1.025194468555404</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.025044616776368</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.026370830587756</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018337598080072</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9768852097741916</v>
+        <v>0.9790776680849221</v>
       </c>
       <c r="D13">
-        <v>1.005329928630299</v>
+        <v>1.007107537267444</v>
       </c>
       <c r="E13">
         <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.005636789907109</v>
+        <v>1.006573219859321</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.041212011259785</v>
+        <v>1.042110279834129</v>
       </c>
       <c r="J13">
-        <v>1.007604767378203</v>
+        <v>1.00969870421012</v>
       </c>
       <c r="K13">
-        <v>1.020312029754622</v>
+        <v>1.022056242339207</v>
       </c>
       <c r="L13">
-        <v>0.9483836088964246</v>
+        <v>0.9483836088964247</v>
       </c>
       <c r="M13">
-        <v>1.020613114994713</v>
+        <v>1.02153194699662</v>
       </c>
       <c r="N13">
-        <v>1.006582430981002</v>
+        <v>1.010401364666817</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.025992247892395</v>
+        <v>1.026718593846697</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.025500254860408</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.026749047322918</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018478800551574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9781800190611223</v>
+        <v>0.9802252351189122</v>
       </c>
       <c r="D14">
-        <v>1.00620258077438</v>
+        <v>1.007847461073867</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194313</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.007067369594723</v>
+        <v>1.007938664486732</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.041580261491699</v>
+        <v>1.042411615355761</v>
       </c>
       <c r="J14">
-        <v>1.008526573508485</v>
+        <v>1.010481318580775</v>
       </c>
       <c r="K14">
-        <v>1.021025282529228</v>
+        <v>1.022639664574643</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764514</v>
+        <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>1.021874020825668</v>
+        <v>1.022729180752899</v>
       </c>
       <c r="N14">
-        <v>1.006945242093265</v>
+        <v>1.010567423424449</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.027164036622133</v>
+        <v>1.027839956717078</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.02600600320367</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.027163126272929</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018616208058984</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,105 +1245,123 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9788073950061326</v>
+        <v>0.9807830597321673</v>
       </c>
       <c r="D15">
-        <v>1.006622133404722</v>
+        <v>1.008204687192548</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>1.007599848323321</v>
+        <v>1.008441068340283</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.04174727064629</v>
+        <v>1.042547212172616</v>
       </c>
       <c r="J15">
-        <v>1.008932575348158</v>
+        <v>1.010821652334873</v>
       </c>
       <c r="K15">
-        <v>1.021348997560451</v>
+        <v>1.022902439004002</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767192</v>
+        <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>1.02230871256459</v>
+        <v>1.023134481946812</v>
       </c>
       <c r="N15">
-        <v>1.007092718200129</v>
+        <v>1.010621889293732</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.027545482473632</v>
+        <v>1.028198154938403</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.026240829548851</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.027355426573059</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018675178224715</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C16">
-        <v>0.9818880608604698</v>
+        <v>0.9835381713632217</v>
       </c>
       <c r="D16">
-        <v>1.008658099090582</v>
+        <v>1.009947018076349</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.009573313164011</v>
+        <v>1.010276167507113</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.042510974561179</v>
+        <v>1.043162902343478</v>
       </c>
       <c r="J16">
-        <v>1.010760022991775</v>
+        <v>1.012341563525172</v>
       </c>
       <c r="K16">
-        <v>1.022836545147895</v>
+        <v>1.024102811761633</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.023735666887218</v>
+        <v>1.024426188492305</v>
       </c>
       <c r="N16">
-        <v>1.007692880524973</v>
+        <v>1.010806474903622</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.028634273300222</v>
+        <v>1.029180064423677</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.027295802472091</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.028207640812774</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018934152497612</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9835873900920935</v>
+        <v>0.9850763045566094</v>
       </c>
       <c r="D17">
-        <v>1.009773583240731</v>
+        <v>1.010913345951809</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>1.010346830162898</v>
+        <v>1.010982040443807</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.042905458575069</v>
+        <v>1.043482170237342</v>
       </c>
       <c r="J17">
-        <v>1.011691226405442</v>
+        <v>1.013120309763749</v>
       </c>
       <c r="K17">
-        <v>1.023612389121314</v>
+        <v>1.024732692727055</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.024175841941912</v>
+        <v>1.024800216212391</v>
       </c>
       <c r="N17">
-        <v>1.00796865247576</v>
+        <v>1.01089379435183</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.028851945793478</v>
+        <v>1.029345503684525</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.027846979505896</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.028655856603251</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019063284870686</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9841816240815654</v>
+        <v>0.9856274348481857</v>
       </c>
       <c r="D18">
-        <v>1.010142428392018</v>
+        <v>1.011240330189061</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.009973961724254</v>
+        <v>1.01059285505939</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04299190130885</v>
+        <v>1.043547553473639</v>
       </c>
       <c r="J18">
-        <v>1.01185584429272</v>
+        <v>1.013244636592698</v>
       </c>
       <c r="K18">
-        <v>1.023788357137017</v>
+        <v>1.024867821139362</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.023622724216622</v>
+        <v>1.024231213241309</v>
       </c>
       <c r="N18">
-        <v>1.007952246458636</v>
+        <v>1.010839145744532</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.028174371000103</v>
+        <v>1.028655474010774</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.02795962881245</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.028738501998376</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019073157197899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9837178435655488</v>
+        <v>0.9852292647765789</v>
       </c>
       <c r="D19">
-        <v>1.009802382966716</v>
+        <v>1.010959518427399</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.008441457973636</v>
+        <v>1.009091837515435</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.042785425932015</v>
+        <v>1.043371090060712</v>
       </c>
       <c r="J19">
-        <v>1.011272086661926</v>
+        <v>1.012724178584867</v>
       </c>
       <c r="K19">
-        <v>1.023390385226031</v>
+        <v>1.024528176845963</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.022052284069874</v>
+        <v>1.022691746308319</v>
       </c>
       <c r="N19">
-        <v>1.007653551083717</v>
+        <v>1.010624748255294</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.02660267493464</v>
+        <v>1.027108436424077</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.027684713592719</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.028505452025629</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018965155858701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.980278395298209</v>
+        <v>0.9821589628281305</v>
       </c>
       <c r="D20">
-        <v>1.007456421314963</v>
+        <v>1.008955255698105</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.003778947481236</v>
+        <v>1.004596473875669</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.041751457705659</v>
+        <v>1.042509759992239</v>
       </c>
       <c r="J20">
-        <v>1.008591305963749</v>
+        <v>1.010395382962809</v>
       </c>
       <c r="K20">
-        <v>1.021369413545436</v>
+        <v>1.022842444506002</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.017755672531754</v>
+        <v>1.018558978496864</v>
       </c>
       <c r="N20">
-        <v>1.006560881710243</v>
+        <v>1.009953446757435</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.022666275697013</v>
+        <v>1.023302021709607</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.026259759846266</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.02731793250574</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018525977088705</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9741103962439626</v>
+        <v>0.9766944355543616</v>
       </c>
       <c r="D21">
-        <v>1.003361970098059</v>
+        <v>1.00549174179882</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9991923685598266</v>
+        <v>1.000318425823088</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.040166239074124</v>
+        <v>1.041242490224018</v>
       </c>
       <c r="J21">
-        <v>1.004731898490548</v>
+        <v>1.00719993591744</v>
       </c>
       <c r="K21">
-        <v>1.018279927635212</v>
+        <v>1.020369813073127</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981066</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>1.014189057937847</v>
+        <v>1.015293768040085</v>
       </c>
       <c r="N21">
-        <v>1.005224323077845</v>
+        <v>1.009524661863483</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.019801772486626</v>
+        <v>1.020676101978538</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.02407861159662</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.025573277686686</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.017983950459779</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9701996354630928</v>
+        <v>0.9732341630475917</v>
       </c>
       <c r="D22">
-        <v>1.000768340511448</v>
+        <v>1.003300730313726</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651161</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.996420718750984</v>
+        <v>0.9977444218639436</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.039151005840097</v>
+        <v>1.040429780971169</v>
       </c>
       <c r="J22">
-        <v>1.00230589932811</v>
+        <v>1.005195805438222</v>
       </c>
       <c r="K22">
-        <v>1.016324591777345</v>
+        <v>1.018807081458594</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>1.012063416941516</v>
+        <v>1.013360695018015</v>
       </c>
       <c r="N22">
-        <v>1.004388584164185</v>
+        <v>1.009256529973422</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.018119417839973</v>
+        <v>1.019146158892795</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.02268236755073</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.024453356478443</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.017640973135238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9722696519118127</v>
+        <v>0.975043906663444</v>
       </c>
       <c r="D23">
-        <v>1.002135604730103</v>
+        <v>1.004439387447215</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963314</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9978899762058723</v>
+        <v>0.9990994968813005</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.039686158237456</v>
+        <v>1.040849942805953</v>
       </c>
       <c r="J23">
-        <v>1.00358585568691</v>
+        <v>1.006231987502818</v>
       </c>
       <c r="K23">
-        <v>1.017353039643163</v>
+        <v>1.019612623701983</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285318</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>1.013189565610875</v>
+        <v>1.014375588383441</v>
       </c>
       <c r="N23">
-        <v>1.004824990032888</v>
+        <v>1.009346555136277</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.019010717253011</v>
+        <v>1.019949403216189</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.023399761252055</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.025012203109664</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.017814899549332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9802165494040909</v>
+        <v>0.982108689705367</v>
       </c>
       <c r="D24">
-        <v>1.00740145021681</v>
+        <v>1.008909941256732</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011825</v>
+        <v>0.9381640424011828</v>
       </c>
       <c r="F24">
-        <v>1.003557181628475</v>
+        <v>1.004380388871948</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.04171534506667</v>
+        <v>1.042478544311651</v>
       </c>
       <c r="J24">
-        <v>1.00849800600267</v>
+        <v>1.010313281258735</v>
       </c>
       <c r="K24">
-        <v>1.021299822971785</v>
+        <v>1.022782374413444</v>
       </c>
       <c r="L24">
-        <v>0.953371659644254</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>1.017522115821183</v>
+        <v>1.018331014187053</v>
       </c>
       <c r="N24">
-        <v>1.00650742455302</v>
+        <v>1.009914004197773</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.022439737839038</v>
+        <v>1.023079942941462</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.026182791622878</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.027245044843296</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018503997630962</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.989009055105265</v>
+        <v>0.99022860238081</v>
       </c>
       <c r="D25">
-        <v>1.013240964920771</v>
+        <v>1.014079674956258</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718015</v>
+        <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>1.009890349400701</v>
+        <v>1.010419659489981</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.043893939965424</v>
+        <v>1.044319038474851</v>
       </c>
       <c r="J25">
-        <v>1.013912055592808</v>
+        <v>1.015089347970992</v>
       </c>
       <c r="K25">
-        <v>1.025637151359716</v>
+        <v>1.026463284316493</v>
       </c>
       <c r="L25">
-        <v>0.959875449400583</v>
+        <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.022337046337736</v>
+        <v>1.022858348701676</v>
       </c>
       <c r="N25">
-        <v>1.008361619111174</v>
+        <v>1.011154161765005</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.026250520513666</v>
+        <v>1.026663104631141</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.029246674758761</v>
+        <v>1.029844465719049</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019312457118391</v>
       </c>
     </row>
   </sheetData>
